--- a/codelibrary/data.xlsx
+++ b/codelibrary/data.xlsx
@@ -521,29 +521,29 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>帅</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>two</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>皮</t>
+          <t>three</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>four</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -562,7 +562,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>wor</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -581,7 +581,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>yum</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/codelibrary/data.xlsx
+++ b/codelibrary/data.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,90 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>one</t>
